--- a/Excel/Skill_Effect.xlsx
+++ b/Excel/Skill_Effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA49D7-C022-4672-B746-84C839BA88DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C8F05-5983-45EA-A51F-8E28BA1B4BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5568" yWindow="3444" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
 0=释放技能时
 1=计算伤害前
 2=计算伤害后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,6 +477,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -484,6 +491,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -495,6 +505,9 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -506,6 +519,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -517,6 +533,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -528,6 +547,9 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -539,6 +561,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -549,6 +574,9 @@
       </c>
       <c r="D12">
         <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill_Effect.xlsx
+++ b/Excel/Skill_Effect.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C8F05-5983-45EA-A51F-8E28BA1B4BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1DE9E-B274-4358-9A48-D28C1B9E53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="3444" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,7 +75,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
+    <t>添加回血buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[401001]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,18 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
@@ -469,114 +494,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1001</v>
+        <v>410001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1002</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1003</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1004</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2001</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2002</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2003</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2004</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -584,4 +514,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C77F66-FF5A-4082-A446-33BDABA0123A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Skill_Effect.xlsx
+++ b/Excel/Skill_Effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1DE9E-B274-4358-9A48-D28C1B9E53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FCB4F-874E-48DB-9A01-7F0F24D63878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>[401001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,6 +521,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>410002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -518,10 +547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C77F66-FF5A-4082-A446-33BDABA0123A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -554,8 +583,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>